--- a/Source/DemoManufacturing/docs/OrderUpload.xlsx
+++ b/Source/DemoManufacturing/docs/OrderUpload.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isingh\Documents\Personal\Demo apps\DemoApps\Source\DemoManufacturing\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="2835" windowHeight="3405"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="97">
   <si>
     <t>Color</t>
   </si>
@@ -62,9 +57,6 @@
     <t>EURO 1</t>
   </si>
   <si>
-    <t>EURO 2</t>
-  </si>
-  <si>
     <t>EURO 3</t>
   </si>
   <si>
@@ -86,9 +78,6 @@
     <t>EURO 9</t>
   </si>
   <si>
-    <t>EURO 10</t>
-  </si>
-  <si>
     <t>EURO 11</t>
   </si>
   <si>
@@ -206,9 +195,6 @@
     <t>K7</t>
   </si>
   <si>
-    <t>K8</t>
-  </si>
-  <si>
     <t>K9</t>
   </si>
   <si>
@@ -216,9 +202,6 @@
   </si>
   <si>
     <t>K11</t>
-  </si>
-  <si>
-    <t>K12</t>
   </si>
   <si>
     <t>K13</t>
@@ -329,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,26 +437,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,23 +472,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,7 +651,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -780,20 +729,20 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>31231</v>
+      </c>
+      <c r="C4">
+        <v>312312</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="F4">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -824,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -844,10 +793,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -864,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>3333</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -904,10 +853,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -924,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -943,17 +892,17 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,10 +913,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -984,10 +933,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1004,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1024,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -1044,10 +993,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -1064,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1084,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1104,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1124,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -1144,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1164,10 +1113,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1184,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1204,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1224,13 +1173,13 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1244,13 +1193,13 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1264,13 +1213,13 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1284,13 +1233,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1304,13 +1253,13 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1324,13 +1273,13 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1344,13 +1293,13 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1364,13 +1313,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1384,13 +1333,13 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1404,13 +1353,13 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1424,13 +1373,13 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1444,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1464,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1484,13 +1433,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1504,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1524,13 +1473,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1544,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1564,13 +1513,13 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1584,13 +1533,13 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1604,13 +1553,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1624,13 +1573,13 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>

--- a/Source/DemoManufacturing/docs/OrderUpload.xlsx
+++ b/Source/DemoManufacturing/docs/OrderUpload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Color</t>
   </si>
@@ -24,12 +24,6 @@
     <t>MajorVariant</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CustomerCode</t>
-  </si>
-  <si>
     <t>Sr. No</t>
   </si>
   <si>
@@ -45,12 +39,6 @@
     <t>K2</t>
   </si>
   <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>CUST001</t>
-  </si>
-  <si>
     <t>DizzelSilver</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
   </si>
   <si>
     <t>K46</t>
-  </si>
-  <si>
-    <t>Rear</t>
   </si>
 </sst>
 </file>
@@ -648,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,72 +645,52 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -736,161 +701,113 @@
         <v>312312</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -898,691 +815,481 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Source/DemoManufacturing/docs/OrderUpload.xlsx
+++ b/Source/DemoManufacturing/docs/OrderUpload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>Color</t>
   </si>
@@ -33,60 +33,9 @@
     <t>EmissionNorms</t>
   </si>
   <si>
-    <t>Gasoline</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>DizzelSilver</t>
   </si>
   <si>
-    <t>EURO 1</t>
-  </si>
-  <si>
-    <t>EURO 3</t>
-  </si>
-  <si>
-    <t>EURO 4</t>
-  </si>
-  <si>
-    <t>EURO 5</t>
-  </si>
-  <si>
-    <t>EURO 6</t>
-  </si>
-  <si>
-    <t>EURO 7</t>
-  </si>
-  <si>
-    <t>EURO 8</t>
-  </si>
-  <si>
-    <t>EURO 9</t>
-  </si>
-  <si>
-    <t>EURO 11</t>
-  </si>
-  <si>
-    <t>EURO 12</t>
-  </si>
-  <si>
-    <t>EURO 13</t>
-  </si>
-  <si>
-    <t>EURO 14</t>
-  </si>
-  <si>
-    <t>EURO 15</t>
-  </si>
-  <si>
-    <t>EURO 16</t>
-  </si>
-  <si>
-    <t>EURO 17</t>
-  </si>
-  <si>
     <t>EURO 18</t>
   </si>
   <si>
@@ -168,51 +117,6 @@
     <t>EURO 44</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K7</t>
-  </si>
-  <si>
-    <t>K9</t>
-  </si>
-  <si>
-    <t>K10</t>
-  </si>
-  <si>
-    <t>K11</t>
-  </si>
-  <si>
-    <t>K13</t>
-  </si>
-  <si>
-    <t>K14</t>
-  </si>
-  <si>
-    <t>K15</t>
-  </si>
-  <si>
-    <t>K16</t>
-  </si>
-  <si>
-    <t>K17</t>
-  </si>
-  <si>
-    <t>K18</t>
-  </si>
-  <si>
-    <t>K19</t>
-  </si>
-  <si>
     <t>K20</t>
   </si>
   <si>
@@ -292,6 +196,48 @@
   </si>
   <si>
     <t>K46</t>
+  </si>
+  <si>
+    <t>Bumper Type</t>
+  </si>
+  <si>
+    <t>DrizzleSilver</t>
+  </si>
+  <si>
+    <t>Gasoline BS4</t>
+  </si>
+  <si>
+    <t>BASE (O) / K2+</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>BASE / K2</t>
+  </si>
+  <si>
+    <t>MID (O) / K4+</t>
+  </si>
+  <si>
+    <t>MID / K4</t>
+  </si>
+  <si>
+    <t>HIGH / K6</t>
+  </si>
+  <si>
+    <t>HIGH (O) / K6+</t>
+  </si>
+  <si>
+    <t>HIGH + / K8</t>
+  </si>
+  <si>
+    <t>KE8</t>
+  </si>
+  <si>
+    <t>MID EXP/ K6+</t>
+  </si>
+  <si>
+    <t>Rear</t>
   </si>
 </sst>
 </file>
@@ -327,8 +273,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +597,7 @@
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -661,260 +610,317 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>31231</v>
-      </c>
-      <c r="C4">
-        <v>312312</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -922,13 +928,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -936,13 +945,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -950,13 +962,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -964,13 +979,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -978,13 +996,16 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -992,304 +1013,370 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>59</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Source/DemoManufacturing/docs/OrderUpload.xlsx
+++ b/Source/DemoManufacturing/docs/OrderUpload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
   <si>
     <t>Color</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Rear</t>
+  </si>
+  <si>
+    <t>DrizzleSilver1</t>
+  </si>
+  <si>
+    <t>DrizzleSilver2</t>
+  </si>
+  <si>
+    <t>PearlWhite12</t>
+  </si>
+  <si>
+    <t>PearlWhite123</t>
   </si>
 </sst>
 </file>
@@ -585,7 +597,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>62</v>
@@ -636,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -925,7 +937,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -942,7 +954,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
